--- a/data/trans_orig/Q21A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q21A-Edad-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>1.412048661048499</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1.92339436086917</v>
+        <v>1.923394360869169</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>1.720631060003275</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.197661662710576</v>
+        <v>1.195917329731978</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.187987674448545</v>
+        <v>1.193117062390638</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.240214908824602</v>
+        <v>1.250350618015746</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.389319573987567</v>
+        <v>1.388762771025336</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.46303639912561</v>
+        <v>1.468180880690741</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.470223485667186</v>
+        <v>1.428386334399187</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.649947209462271</v>
+        <v>1.660847588594866</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.540653521588789</v>
+        <v>1.502358734881292</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.383189060520715</v>
+        <v>1.383102795807872</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1.367016140822692</v>
+        <v>1.362276743099663</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1.528321003455737</v>
+        <v>1.515473987023369</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>1.554976408397244</v>
+        <v>1.542995213543638</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.596523366406081</v>
+        <v>1.542990847711293</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.470437355108007</v>
+        <v>1.452246031615457</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.643061700971452</v>
+        <v>1.674715658486962</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.927119768949882</v>
+        <v>3.018771429568893</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.174561757216911</v>
+        <v>2.251583375380014</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.105669846529633</v>
+        <v>2.133947589053026</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.453895004832058</v>
+        <v>2.438973485778168</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.186710326925705</v>
+        <v>2.191502240143119</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.814238263991742</v>
+        <v>1.79018556261872</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1.757427856615357</v>
+        <v>1.729763357032044</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>1.98857217188899</v>
+        <v>1.957303390860534</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>2.40946728898999</v>
+        <v>2.401507847582035</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>2.187376878501273</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>2.212926755021019</v>
+        <v>2.21292675502102</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>1.44131160952544</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.171850600470064</v>
+        <v>1.167787004544385</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.471879370514779</v>
+        <v>1.447692508004762</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.370903292532124</v>
+        <v>1.35390169760574</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.521880456295805</v>
+        <v>1.512914996482257</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>1.398877614866328</v>
+        <v>1.384020659883739</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>1.657388678168547</v>
+        <v>1.653404286795528</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>1.746221298241847</v>
+        <v>1.748054266145433</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>1.787696834180811</v>
+        <v>1.796644727848117</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>1.337862487033289</v>
+        <v>1.339317504443714</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1.634413271554742</v>
+        <v>1.631323020600426</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1.67235998840692</v>
+        <v>1.660452611330927</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>1.785494493822361</v>
+        <v>1.778595122474654</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.556342518051264</v>
+        <v>1.523613382225277</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.129200872765209</v>
+        <v>2.130503752413033</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.773553353360942</v>
+        <v>1.764799795257376</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.628513704817832</v>
+        <v>2.626545082431571</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>1.772515236864511</v>
+        <v>1.760391903602615</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>2.214781797395774</v>
+        <v>2.201770608333055</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>3.233218506708468</v>
+        <v>3.038310805169083</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>3.296540309720403</v>
+        <v>3.236959732155621</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>1.5944341449279</v>
+        <v>1.599390987768588</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2.073990204000446</v>
+        <v>2.05771631312931</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>2.477891691121118</v>
+        <v>2.491016629161583</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>2.683655669793501</v>
+        <v>2.68662050268033</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>1.765066332333553</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>2.127508184948577</v>
+        <v>2.127508184948576</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>1.587124657944458</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.080500062714646</v>
+        <v>1.080962494044749</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.398716304812321</v>
+        <v>1.389621327107191</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.407407301274498</v>
+        <v>1.384468903432763</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.326165353616844</v>
+        <v>1.363258623104606</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.578523907183158</v>
+        <v>1.585333146295482</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.839514097638171</v>
+        <v>1.844490976859124</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.49967049490623</v>
+        <v>1.512195650516869</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.781325717737521</v>
+        <v>1.795182381029418</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.410181593673115</v>
+        <v>1.405407434148363</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1.68991273869576</v>
+        <v>1.698189267909644</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1.53613080953768</v>
+        <v>1.530258768507774</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>1.646651061600819</v>
+        <v>1.650804886303673</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.393490827180163</v>
+        <v>1.372684339825992</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.086472152421818</v>
+        <v>2.005673815231523</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.987306273821158</v>
+        <v>2.807968291838851</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.159447729247929</v>
+        <v>2.263051852235891</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.320797517691922</v>
+        <v>2.29581020160229</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.747906801449266</v>
+        <v>2.935215757556401</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.240015623801376</v>
+        <v>2.256363372138705</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.752303481849111</v>
+        <v>2.781778770683609</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.882866543824552</v>
+        <v>1.888636523696779</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2.281786857163135</v>
+        <v>2.304026994163276</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>2.217048760371632</v>
+        <v>2.201796679401334</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>2.242174839375433</v>
+        <v>2.293497677159597</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.224024576426144</v>
+        <v>1.219562681434435</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.510286764642012</v>
+        <v>1.487368327273167</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.530401120011927</v>
+        <v>1.545082386763486</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.473455547411439</v>
+        <v>1.505625885014773</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.49908179654411</v>
+        <v>1.502634664099994</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>1.715819301786899</v>
+        <v>1.711482871879352</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1.528604425810534</v>
+        <v>1.540891264426894</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>1.714884083259122</v>
+        <v>1.709100541855924</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>1.445876241481013</v>
+        <v>1.439090782187376</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1.698303861925751</v>
+        <v>1.694759866752645</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1.5978972173891</v>
+        <v>1.579567461004727</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>1.686188620106598</v>
+        <v>1.686179242106</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.522173596932</v>
+        <v>2.405047363831868</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.324405147441623</v>
+        <v>2.253539223381607</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.31782302496425</v>
+        <v>2.356625234611898</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.30538590001489</v>
+        <v>2.361639970681548</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>2.215358003582811</v>
+        <v>2.197502789576415</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>2.402443444528719</v>
+        <v>2.463182936225909</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>2.03268208758892</v>
+        <v>2.037409814627382</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>3.14695171800786</v>
+        <v>3.282449318295007</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>2.021538231948498</v>
+        <v>2.039680675482251</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>2.210823242291016</v>
+        <v>2.195292354241422</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>2.083951841841349</v>
+        <v>2.0503638438319</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>2.491193153974337</v>
+        <v>2.419398786072875</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>1.830129978807411</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>1.908533774179391</v>
+        <v>1.90853377417939</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>1.509268636199861</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.09934776046602</v>
+        <v>1.101042764420593</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.532375991275538</v>
+        <v>1.525496579992973</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.284935475900921</v>
+        <v>1.298128508889874</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.421693452560022</v>
+        <v>1.415319698551339</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.424041413949957</v>
+        <v>1.458482454966128</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.424219901100242</v>
+        <v>1.426672519436237</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.556564944295921</v>
+        <v>1.535399828983203</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.720654565178175</v>
+        <v>1.716109158387313</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.317552547726169</v>
+        <v>1.333117062888119</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1.5383652104588</v>
+        <v>1.531472371993143</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1.481135156676596</v>
+        <v>1.465574705122545</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>1.625636137518464</v>
+        <v>1.6175759644094</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.359728833225429</v>
+        <v>1.393337216934775</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.415743528078456</v>
+        <v>3.696650421245993</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.663195693148214</v>
+        <v>1.710765039816809</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.81252115767535</v>
+        <v>1.818229037214144</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.3401049336463</v>
+        <v>2.381971871439921</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.956770981530262</v>
+        <v>1.917688010947554</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.253333691585778</v>
+        <v>2.241501517536754</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.287574600604429</v>
+        <v>2.292599159584094</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.850941890048385</v>
+        <v>1.866981719996859</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2.494690845148061</v>
+        <v>2.455546298556209</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1.909358041740352</v>
+        <v>1.91394849752419</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>1.967654524639503</v>
+        <v>1.990843454305249</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>1.841871261944306</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>1.806449880784923</v>
+        <v>1.806449880784924</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>1.725938450352577</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.313250752323015</v>
+        <v>1.311196261367517</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.387893394123912</v>
+        <v>1.368462816476036</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.289008371218666</v>
+        <v>1.304943206554573</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.433208271219865</v>
+        <v>1.441271580398147</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.646905771686854</v>
+        <v>1.631091425637796</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>1.642333713940453</v>
+        <v>1.606236431782638</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>1.499304340938068</v>
+        <v>1.525600186622021</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>1.597840635638675</v>
+        <v>1.582721379070501</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>1.566374584812009</v>
+        <v>1.549437481567273</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1.606196805468153</v>
+        <v>1.605307218315019</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1.477278439946763</v>
+        <v>1.494506690920096</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>1.590734982708815</v>
+        <v>1.579495004831148</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.67380950611644</v>
+        <v>1.707332073480613</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.160768251362832</v>
+        <v>2.217640368623734</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.973726755448671</v>
+        <v>1.961519618182425</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2.023369842647719</v>
+        <v>2.010644277334277</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>2.330351162606193</v>
+        <v>2.247256345403306</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>2.648738666943304</v>
+        <v>2.585665546075553</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>2.688869368756754</v>
+        <v>2.937390396984784</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>2.16437447773825</v>
+        <v>2.16831459847093</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>2.011458641236244</v>
+        <v>1.988312949444239</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2.268145726152702</v>
+        <v>2.281233271054826</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>2.23961863612698</v>
+        <v>2.377588675159337</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>2.017540043175639</v>
+        <v>1.976935584945959</v>
       </c>
     </row>
     <row r="22">
@@ -1509,7 +1509,7 @@
         <v>1.771141648243769</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>2.006474656843603</v>
+        <v>2.006474656843604</v>
       </c>
     </row>
     <row r="23">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.461594340237974</v>
+        <v>1.462488477000338</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.621320640759965</v>
+        <v>1.607115474848681</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.42607645616728</v>
+        <v>1.420541633427141</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.478273917223277</v>
+        <v>1.480983914980457</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.608462422784321</v>
+        <v>1.610545988142199</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.620724895932468</v>
+        <v>1.637359230462574</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.600873324758141</v>
+        <v>1.599827595147725</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.526327197291099</v>
+        <v>1.521693609224106</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.593702562560872</v>
+        <v>1.612691181665648</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1.712929878422696</v>
+        <v>1.716649170174673</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1.59536672266603</v>
+        <v>1.583161509439286</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>1.598943520622591</v>
+        <v>1.596488945338849</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.032207365815589</v>
+        <v>2.081663064116794</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.838431902912888</v>
+        <v>4.008853665626466</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.860851287994088</v>
+        <v>1.884783591679754</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.562857324074308</v>
+        <v>6.870386376709812</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.105844841614995</v>
+        <v>2.112164199497384</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.13184004421206</v>
+        <v>2.143881032639971</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.161659099218572</v>
+        <v>2.151011828543257</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.394864943390503</v>
+        <v>2.354427827781547</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.974852323156573</v>
+        <v>2.015321735521543</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2.636056203361212</v>
+        <v>2.652392332629715</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1.999501043180634</v>
+        <v>1.998495011773037</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>3.649865340117255</v>
+        <v>3.581949814587539</v>
       </c>
     </row>
     <row r="25">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.285636992125998</v>
+        <v>1.289687458838959</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>1.586137838828688</v>
+        <v>1.59206517056897</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1.501814102101368</v>
+        <v>1.501791384645148</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1.620230660306427</v>
+        <v>1.625581868887394</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>1.630301431966152</v>
+        <v>1.636264974866902</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>1.780954205802509</v>
+        <v>1.771802039371374</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>1.765834553429465</v>
+        <v>1.755262954710756</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>1.84020643558623</v>
+        <v>1.83159529618659</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>1.514715864671328</v>
+        <v>1.516830748037695</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1.732600804626544</v>
+        <v>1.72294425068181</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1.677279389070349</v>
+        <v>1.675882378587727</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>1.784780176030655</v>
+        <v>1.791385728613549</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.47945140799032</v>
+        <v>1.473355191715866</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.953575068979874</v>
+        <v>1.972758161270785</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.813908829202131</v>
+        <v>1.808946213212082</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2.116871613188637</v>
+        <v>2.124895071578136</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>1.870370427170107</v>
+        <v>1.865264440544339</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>2.054288112384162</v>
+        <v>2.030887026642202</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>2.101529422999084</v>
+        <v>2.088232809693034</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>2.204566527092521</v>
+        <v>2.182197057021666</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>1.671255861965747</v>
+        <v>1.681861570587043</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1.967696629474106</v>
+        <v>1.942860454783437</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1.913365929996939</v>
+        <v>1.90983566159839</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>2.079772603019152</v>
+        <v>2.076440309375555</v>
       </c>
     </row>
     <row r="28">
